--- a/biology/Botanique/André_Desportes/André_Desportes.xlsx
+++ b/biology/Botanique/André_Desportes/André_Desportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desportes</t>
+          <t>André_Desportes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'André Desportes  est une variété ancienne de poire précoce.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desportes</t>
+          <t>André_Desportes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de synonyme connu.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desportes</t>
+          <t>André_Desportes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variété ancienne de 1854, créée  et obtenue par André Leroy, pépiniériste à Angers, et dédiée au fils du directeur commercial de l'établissement[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variété ancienne de 1854, créée  et obtenue par André Leroy, pépiniériste à Angers, et dédiée au fils du directeur commercial de l'établissement.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desportes</t>
+          <t>André_Desportes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La floraison a lieu début avril.
 L'arbre se révèle productif et résistant aux maladies.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desportes</t>
+          <t>André_Desportes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,12 +624,14 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le poirier « André Desportes » donne des poires ventrues de taille moyenne, d’un beau jaune-verdâtre marqué de rouge-brunâtre. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poirier « André Desportes » donne des poires ventrues de taille moyenne, d’un beau jaune-verdâtre marqué de rouge-brunâtre. 
 Leur chair blanche est très fine, juteuse, sucrée, acidulée et délicieusement parfumée.
 Les fruits se récoltent en juillet-août mais doivent être consommés assez rapidement, ils ne se conservent pas très bien.
-Pollinisateurs recommandés</t>
+</t>
         </is>
       </c>
     </row>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desportes</t>
+          <t>André_Desportes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,6 +660,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -647,7 +669,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desportes</t>
+          <t>André_Desportes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -665,7 +687,9 @@
           <t>Appréciations générales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Poire précoce, sa maturité commence à partir de mi-juillet. Excellente qualité gustative.
 </t>
@@ -678,7 +702,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desportes</t>
+          <t>André_Desportes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -696,7 +720,9 @@
           <t>Observations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr Jules Guyot, INFEL 1445A
 </t>
